--- a/DB_DEFINITION/DBデータ.xlsx
+++ b/DB_DEFINITION/DBデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbh68\Documents\aka\Java\08_web-api-sandbox\DB_DEFINITION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B7390-4A5E-4EC2-9211-30C642987912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4F671-79C7-4B97-8D11-C0BC78224E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A81DE570-63A6-4E42-93E8-CE5A4DD71763}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A81DE570-63A6-4E42-93E8-CE5A4DD71763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd\ h:mm:ss.000"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -451,7 +451,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE3F75E-EB72-482B-9D07-7702616FB489}">
   <dimension ref="A3:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1370,7 +1370,7 @@
         <v>44860.045467569442</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>VLOOKUP(B44,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" ref="F44:F50" si="2">VLOOKUP(B44,$A$19:$B$21,2,FALSE)</f>
         <v>GroupA</v>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
         <v>44861.045467534721</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>VLOOKUP(B45,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupA</v>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>44862.045467534721</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>VLOOKUP(B46,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupA</v>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>44863.045467534721</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>VLOOKUP(B47,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupA</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
         <v>44864.045467534721</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>VLOOKUP(B48,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupB</v>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
         <v>44865.045467534721</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>VLOOKUP(B49,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupB</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>44866.045467534721</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>VLOOKUP(B50,$A$19:$B$21,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>GroupB</v>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         <v>44210.047743055555</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>VLOOKUP(B55,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" ref="G55:G64" si="3">VLOOKUP(B55,$A$44:$F$49,6,TRUE)</f>
         <v>GroupA</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f t="shared" ref="H55:H63" si="2">VLOOKUP(C55,$A$5:$B$14,2,FALSE)</f>
+        <f t="shared" ref="H55:H63" si="4">VLOOKUP(C55,$A$5:$B$14,2,FALSE)</f>
         <v>Alice</v>
       </c>
     </row>
@@ -1546,11 +1546,11 @@
         <v>44861.04774519676</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>VLOOKUP(B56,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Queen</v>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
         <v>44862.04774519676</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>VLOOKUP(B57,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alice</v>
       </c>
     </row>
@@ -1596,11 +1596,11 @@
         <v>44863.04774519676</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>VLOOKUP(B58,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Queen</v>
       </c>
     </row>
@@ -1621,11 +1621,11 @@
         <v>44864.04774519676</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>VLOOKUP(B59,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alice</v>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
         <v>44211.047743055555</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>VLOOKUP(B60,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alice</v>
       </c>
     </row>
@@ -1671,11 +1671,11 @@
         <v>44212.047742997682</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>VLOOKUP(B61,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Wendy</v>
       </c>
     </row>
@@ -1696,11 +1696,11 @@
         <v>44213.047742997682</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>VLOOKUP(B62,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Oscar</v>
       </c>
     </row>
@@ -1721,11 +1721,11 @@
         <v>44214.047742997682</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>VLOOKUP(B63,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupB</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Bob</v>
       </c>
     </row>
@@ -1746,11 +1746,11 @@
         <v>44215.047742997682</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>VLOOKUP(B64,$A$44:$F$49,6,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>GroupA</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" ref="H64" si="3">VLOOKUP(C64,$A$5:$B$14,2,FALSE)</f>
+        <f t="shared" ref="H64" si="5">VLOOKUP(C64,$A$5:$B$14,2,FALSE)</f>
         <v>Bob</v>
       </c>
     </row>
